--- a/INDEX_VALUES.XLSX
+++ b/INDEX_VALUES.XLSX
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="229">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -693,6 +693,12 @@
   </si>
   <si>
     <t xml:space="preserve">163.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163.5</t>
   </si>
 </sst>
 </file>
@@ -3056,6 +3062,29 @@
         <v>226</v>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B89" t="n">
+        <v>103.960315275107</v>
+      </c>
+      <c r="C89" t="n">
+        <v>119.945071509359</v>
+      </c>
+      <c r="D89" t="s">
+        <v>215</v>
+      </c>
+      <c r="E89" t="s">
+        <v>227</v>
+      </c>
+      <c r="F89" t="s">
+        <v>174</v>
+      </c>
+      <c r="G89" t="s">
+        <v>228</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/INDEX_VALUES.XLSX
+++ b/INDEX_VALUES.XLSX
@@ -3067,7 +3067,7 @@
         <v>45383</v>
       </c>
       <c r="B89" t="n">
-        <v>103.960315275107</v>
+        <v>128.231206000813</v>
       </c>
       <c r="C89" t="n">
         <v>119.945071509359</v>

--- a/INDEX_VALUES.XLSX
+++ b/INDEX_VALUES.XLSX
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="232">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -699,6 +699,15 @@
   </si>
   <si>
     <t xml:space="preserve">163.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.0</t>
   </si>
 </sst>
 </file>
@@ -3085,6 +3094,29 @@
         <v>228</v>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>45413</v>
+      </c>
+      <c r="B90" t="n">
+        <v>105.07416888738</v>
+      </c>
+      <c r="C90" t="n">
+        <v>120.001606396194</v>
+      </c>
+      <c r="D90" t="s">
+        <v>229</v>
+      </c>
+      <c r="E90" t="s">
+        <v>230</v>
+      </c>
+      <c r="F90" t="s">
+        <v>50</v>
+      </c>
+      <c r="G90" t="s">
+        <v>231</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/INDEX_VALUES.XLSX
+++ b/INDEX_VALUES.XLSX
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -708,6 +708,12 @@
   </si>
   <si>
     <t xml:space="preserve">164.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.5</t>
   </si>
 </sst>
 </file>
@@ -3099,7 +3105,7 @@
         <v>45413</v>
       </c>
       <c r="B90" t="n">
-        <v>105.07416888738</v>
+        <v>129.605103257975</v>
       </c>
       <c r="C90" t="n">
         <v>120.001606396194</v>
@@ -3115,6 +3121,29 @@
       </c>
       <c r="G90" t="s">
         <v>231</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B91" t="n">
+        <v>106.153531528492</v>
+      </c>
+      <c r="C91" t="n">
+        <v>119.683366157099</v>
+      </c>
+      <c r="D91" t="s">
+        <v>232</v>
+      </c>
+      <c r="E91" t="s">
+        <v>227</v>
+      </c>
+      <c r="F91" t="s">
+        <v>174</v>
+      </c>
+      <c r="G91" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/INDEX_VALUES.XLSX
+++ b/INDEX_VALUES.XLSX
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="237">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -714,6 +714,15 @@
   </si>
   <si>
     <t xml:space="preserve">165.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 87.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.9</t>
   </si>
 </sst>
 </file>
@@ -3128,7 +3137,7 @@
         <v>45444</v>
       </c>
       <c r="B91" t="n">
-        <v>106.153531528492</v>
+        <v>130.936457177167</v>
       </c>
       <c r="C91" t="n">
         <v>119.683366157099</v>
@@ -3144,6 +3153,29 @@
       </c>
       <c r="G91" t="s">
         <v>233</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B92" t="n">
+        <v>107.217349300452</v>
+      </c>
+      <c r="C92" t="n">
+        <v>119.77499651002</v>
+      </c>
+      <c r="D92" t="s">
+        <v>229</v>
+      </c>
+      <c r="E92" t="s">
+        <v>234</v>
+      </c>
+      <c r="F92" t="s">
+        <v>235</v>
+      </c>
+      <c r="G92" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/INDEX_VALUES.XLSX
+++ b/INDEX_VALUES.XLSX
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="239">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -723,15 +723,19 @@
   </si>
   <si>
     <t xml:space="preserve">165.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 88.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166.8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -768,7 +772,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3160,7 +3164,7 @@
         <v>45474</v>
       </c>
       <c r="B92" t="n">
-        <v>107.217349300452</v>
+        <v>132.248637074877</v>
       </c>
       <c r="C92" t="n">
         <v>119.77499651002</v>
@@ -3176,6 +3180,29 @@
       </c>
       <c r="G92" t="s">
         <v>236</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B93" t="n">
+        <v>107.171105715567</v>
+      </c>
+      <c r="C93" t="n">
+        <v>119.925623426037</v>
+      </c>
+      <c r="D93" t="s">
+        <v>229</v>
+      </c>
+      <c r="E93" t="s">
+        <v>234</v>
+      </c>
+      <c r="F93" t="s">
+        <v>237</v>
+      </c>
+      <c r="G93" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/INDEX_VALUES.XLSX
+++ b/INDEX_VALUES.XLSX
@@ -3187,7 +3187,7 @@
         <v>45505</v>
       </c>
       <c r="B93" t="n">
-        <v>107.171105715567</v>
+        <v>132.191597322314</v>
       </c>
       <c r="C93" t="n">
         <v>119.925623426037</v>

--- a/INDEX_VALUES.XLSX
+++ b/INDEX_VALUES.XLSX
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -729,6 +729,12 @@
   </si>
   <si>
     <t xml:space="preserve">166.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">168.5</t>
   </si>
 </sst>
 </file>
@@ -3205,6 +3211,29 @@
         <v>238</v>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B94" t="n">
+        <v>105.287252600406</v>
+      </c>
+      <c r="C94" t="n">
+        <v>119.922839673779</v>
+      </c>
+      <c r="D94" t="s">
+        <v>239</v>
+      </c>
+      <c r="E94" t="s">
+        <v>230</v>
+      </c>
+      <c r="F94" t="s">
+        <v>80</v>
+      </c>
+      <c r="G94" t="s">
+        <v>240</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/INDEX_VALUES.XLSX
+++ b/INDEX_VALUES.XLSX
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -735,6 +735,15 @@
   </si>
   <si>
     <t xml:space="preserve">168.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 88.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">169.0</t>
   </si>
 </sst>
 </file>
@@ -3216,7 +3225,7 @@
         <v>45536</v>
       </c>
       <c r="B94" t="n">
-        <v>105.287252600406</v>
+        <v>129.867934141357</v>
       </c>
       <c r="C94" t="n">
         <v>119.922839673779</v>
@@ -3232,6 +3241,29 @@
       </c>
       <c r="G94" t="s">
         <v>240</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B95" t="n">
+        <v>105.352990696857</v>
+      </c>
+      <c r="C95" t="n">
+        <v>121.48502296079</v>
+      </c>
+      <c r="D95" t="s">
+        <v>239</v>
+      </c>
+      <c r="E95" t="s">
+        <v>241</v>
+      </c>
+      <c r="F95" t="s">
+        <v>242</v>
+      </c>
+      <c r="G95" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/INDEX_VALUES.XLSX
+++ b/INDEX_VALUES.XLSX
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="246">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -744,6 +744,12 @@
   </si>
   <si>
     <t xml:space="preserve">169.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">169.7</t>
   </si>
 </sst>
 </file>
@@ -3266,6 +3272,29 @@
         <v>243</v>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B96" t="n">
+        <v>104.446907005456</v>
+      </c>
+      <c r="C96" t="n">
+        <v>121.06465164124</v>
+      </c>
+      <c r="D96" t="s">
+        <v>229</v>
+      </c>
+      <c r="E96" t="s">
+        <v>244</v>
+      </c>
+      <c r="F96" t="s">
+        <v>80</v>
+      </c>
+      <c r="G96" t="s">
+        <v>245</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/INDEX_VALUES.XLSX
+++ b/INDEX_VALUES.XLSX
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -750,6 +750,15 @@
   </si>
   <si>
     <t xml:space="preserve">169.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 88.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170.9</t>
   </si>
 </sst>
 </file>
@@ -3254,7 +3263,7 @@
         <v>45566</v>
       </c>
       <c r="B95" t="n">
-        <v>105.352990696857</v>
+        <v>129.949019653322</v>
       </c>
       <c r="C95" t="n">
         <v>121.48502296079</v>
@@ -3277,7 +3286,7 @@
         <v>45597</v>
       </c>
       <c r="B96" t="n">
-        <v>104.446907005456</v>
+        <v>128.831398913345</v>
       </c>
       <c r="C96" t="n">
         <v>121.06465164124</v>
@@ -3293,6 +3302,29 @@
       </c>
       <c r="G96" t="s">
         <v>245</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B97" t="n">
+        <v>106.134217158065</v>
+      </c>
+      <c r="C97" t="n">
+        <v>120.746832746776</v>
+      </c>
+      <c r="D97" t="s">
+        <v>239</v>
+      </c>
+      <c r="E97" t="s">
+        <v>246</v>
+      </c>
+      <c r="F97" t="s">
+        <v>247</v>
+      </c>
+      <c r="G97" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/INDEX_VALUES.XLSX
+++ b/INDEX_VALUES.XLSX
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="257">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -759,6 +759,30 @@
   </si>
   <si>
     <t xml:space="preserve">170.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 86.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.0</t>
   </si>
 </sst>
 </file>
@@ -3309,7 +3333,7 @@
         <v>45627</v>
       </c>
       <c r="B97" t="n">
-        <v>106.134217158065</v>
+        <v>130.912633615201</v>
       </c>
       <c r="C97" t="n">
         <v>120.746832746776</v>
@@ -3325,6 +3349,75 @@
       </c>
       <c r="G97" t="s">
         <v>248</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B98" t="n">
+        <v>129.599960964251</v>
+      </c>
+      <c r="C98" t="n">
+        <v>122.427773483352</v>
+      </c>
+      <c r="D98" t="s">
+        <v>222</v>
+      </c>
+      <c r="E98" t="s">
+        <v>249</v>
+      </c>
+      <c r="F98" t="s">
+        <v>250</v>
+      </c>
+      <c r="G98" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B99" t="n">
+        <v>130.763998761473</v>
+      </c>
+      <c r="C99" t="n">
+        <v>122.637687759991</v>
+      </c>
+      <c r="D99" t="s">
+        <v>252</v>
+      </c>
+      <c r="E99" t="s">
+        <v>253</v>
+      </c>
+      <c r="F99" t="s">
+        <v>169</v>
+      </c>
+      <c r="G99" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B100" t="n">
+        <v>132.015597494155</v>
+      </c>
+      <c r="C100" t="n">
+        <v>123.167012106947</v>
+      </c>
+      <c r="D100" t="s">
+        <v>241</v>
+      </c>
+      <c r="E100" t="s">
+        <v>255</v>
+      </c>
+      <c r="F100" t="s">
+        <v>80</v>
+      </c>
+      <c r="G100" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/INDEX_VALUES.XLSX
+++ b/INDEX_VALUES.XLSX
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -783,6 +783,24 @@
   </si>
   <si>
     <t xml:space="preserve">172.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.8</t>
   </si>
 </sst>
 </file>
@@ -3420,6 +3438,52 @@
         <v>256</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B101" t="n">
+        <v>133.091761295188</v>
+      </c>
+      <c r="C101" t="n">
+        <v>123.545536029778</v>
+      </c>
+      <c r="D101" t="s">
+        <v>257</v>
+      </c>
+      <c r="E101" t="s">
+        <v>258</v>
+      </c>
+      <c r="F101" t="s">
+        <v>70</v>
+      </c>
+      <c r="G101" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B102" t="n">
+        <v>132.510366166753</v>
+      </c>
+      <c r="C102" t="n">
+        <v>124.395161380377</v>
+      </c>
+      <c r="D102" t="s">
+        <v>260</v>
+      </c>
+      <c r="E102" t="s">
+        <v>261</v>
+      </c>
+      <c r="F102" t="s">
+        <v>225</v>
+      </c>
+      <c r="G102" t="s">
+        <v>262</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/INDEX_VALUES.XLSX
+++ b/INDEX_VALUES.XLSX
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="266">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -801,6 +801,15 @@
   </si>
   <si>
     <t xml:space="preserve">172.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173.4</t>
   </si>
 </sst>
 </file>
@@ -3484,6 +3493,29 @@
         <v>262</v>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B103" t="n">
+        <v>134.114162022042</v>
+      </c>
+      <c r="C103" t="n">
+        <v>124.460825088141</v>
+      </c>
+      <c r="D103" t="s">
+        <v>263</v>
+      </c>
+      <c r="E103" t="s">
+        <v>264</v>
+      </c>
+      <c r="F103" t="s">
+        <v>247</v>
+      </c>
+      <c r="G103" t="s">
+        <v>265</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/INDEX_VALUES.XLSX
+++ b/INDEX_VALUES.XLSX
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="271">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -810,6 +810,21 @@
   </si>
   <si>
     <t xml:space="preserve">173.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">174.2</t>
   </si>
 </sst>
 </file>
@@ -3516,6 +3531,52 @@
         <v>265</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B104" t="n">
+        <v>135.039621870211</v>
+      </c>
+      <c r="C104" t="n">
+        <v>124.457525045089</v>
+      </c>
+      <c r="D104" t="s">
+        <v>266</v>
+      </c>
+      <c r="E104" t="s">
+        <v>267</v>
+      </c>
+      <c r="F104" t="s">
+        <v>89</v>
+      </c>
+      <c r="G104" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B105" t="n">
+        <v>135.084445598152</v>
+      </c>
+      <c r="C105" t="n">
+        <v>125.010473419394</v>
+      </c>
+      <c r="D105" t="s">
+        <v>31</v>
+      </c>
+      <c r="E105" t="s">
+        <v>269</v>
+      </c>
+      <c r="F105" t="s">
+        <v>70</v>
+      </c>
+      <c r="G105" t="s">
+        <v>270</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/INDEX_VALUES.XLSX
+++ b/INDEX_VALUES.XLSX
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -825,6 +825,24 @@
   </si>
   <si>
     <t xml:space="preserve">174.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">175.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">175.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">175.6</t>
   </si>
 </sst>
 </file>
@@ -3577,6 +3595,75 @@
         <v>270</v>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B106" t="n">
+        <v>134.032970107764</v>
+      </c>
+      <c r="C106" t="n">
+        <v>124.769786531808</v>
+      </c>
+      <c r="D106" t="s">
+        <v>271</v>
+      </c>
+      <c r="E106" t="s">
+        <v>272</v>
+      </c>
+      <c r="F106" t="s">
+        <v>50</v>
+      </c>
+      <c r="G106" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B107" t="n">
+        <v>134.552513955641</v>
+      </c>
+      <c r="C107" t="n">
+        <v>125.347216021858</v>
+      </c>
+      <c r="D107" t="s">
+        <v>274</v>
+      </c>
+      <c r="E107" t="s">
+        <v>271</v>
+      </c>
+      <c r="F107" t="s">
+        <v>225</v>
+      </c>
+      <c r="G107" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>45962</v>
+      </c>
+      <c r="B108" t="n">
+        <v>134.094300957964</v>
+      </c>
+      <c r="C108" t="n">
+        <v>125.136181910503</v>
+      </c>
+      <c r="D108" t="s">
+        <v>271</v>
+      </c>
+      <c r="E108" t="s">
+        <v>271</v>
+      </c>
+      <c r="F108" t="s">
+        <v>74</v>
+      </c>
+      <c r="G108" t="s">
+        <v>276</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
